--- a/example.xlsx
+++ b/example.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="26340" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TO_SERVICE-NOW" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,17 +26,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="ffffffff"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -58,19 +50,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -433,32 +421,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10.5703125" customWidth="1" min="2" max="2"/>
-    <col width="28.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="5.85546875" customWidth="1" min="5" max="5"/>
-    <col width="11.85546875" customWidth="1" min="6" max="7"/>
-    <col width="43.7109375" customWidth="1" min="8" max="8"/>
-    <col width="35.42578125" customWidth="1" min="9" max="9"/>
-    <col width="22.42578125" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="7.140625" customWidth="1" min="13" max="13"/>
-    <col width="5.85546875" customWidth="1" min="14" max="14"/>
-    <col width="47.140625" customWidth="1" min="15" max="15"/>
-    <col width="35.42578125" customWidth="1" min="16" max="16"/>
-    <col width="40.140625" customWidth="1" min="17" max="17"/>
-    <col width="80.28515625" customWidth="1" min="18" max="18"/>
-    <col width="11.85546875" customWidth="1" min="19" max="19"/>
+    <col width="11.8" customWidth="1" min="1" max="1"/>
+    <col width="10.62" customWidth="1" min="2" max="2"/>
+    <col width="16.52" customWidth="1" min="3" max="3"/>
+    <col width="12.98" customWidth="1" min="4" max="4"/>
+    <col width="5.899999999999999" customWidth="1" min="5" max="5"/>
+    <col width="11.8" customWidth="1" min="6" max="6"/>
+    <col width="11.8" customWidth="1" min="7" max="7"/>
+    <col width="43.66" customWidth="1" min="8" max="8"/>
+    <col width="35.4" customWidth="1" min="9" max="9"/>
+    <col width="22.42" customWidth="1" min="10" max="10"/>
+    <col width="25.96" customWidth="1" min="11" max="11"/>
+    <col width="12.98" customWidth="1" min="12" max="12"/>
+    <col width="7.08" customWidth="1" min="13" max="13"/>
+    <col width="5.899999999999999" customWidth="1" min="14" max="14"/>
+    <col width="47.2" customWidth="1" min="15" max="15"/>
+    <col width="35.4" customWidth="1" min="16" max="16"/>
+    <col width="40.12" customWidth="1" min="17" max="17"/>
+    <col width="80.23999999999999" customWidth="1" min="18" max="18"/>
+    <col width="11.8" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,17 +550,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mariana</t>
+          <t>Randy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nuñes</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>lucasain2010@gmail.com</t>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>rward@lapro.tv</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -581,18 +570,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LHKG5</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>37204</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>37203</v>
+          <t>0207A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>04/09/2020</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>08/09/2020</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>lukaneco.github.io/cv</t>
+          <t>0210207A24825215042280136Jamie Albert</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -627,7 +620,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>luca.sain@yahoo.com luca.sain@outlook.com</t>
+          <t>pammartin01@yahoo.com pammartin01@kw.com</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -637,109 +630,16 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Are you ready for your hyper inflation?  </t>
+          <t xml:space="preserve">Are you ready for your vacation?  </t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>good luck</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>San Martin</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>luca.sain@yahoo.com lucasain@mail.com lucasain2010@gmail.com lucasain2010@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>123124123</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3312</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>02/07/1814</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>04/08/1814</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>www.facebook.com/Gammaislove</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>roberto carlos</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Pam Peter, REACT</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Aranguren 9123</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Baton Rouge</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>LA</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>70817</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>luca.sain@yahoo.com luca.sain@outlook.com</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>(251)269-8864 or (251)279-0716</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Are you ready?  </t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>best regards</t>
+          <t>We hope you enjoy your stay. Please contact me If you need anything!</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="lucasain2010@gmail.com" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -431,19 +431,19 @@
   <cols>
     <col width="11.8" customWidth="1" min="1" max="1"/>
     <col width="10.62" customWidth="1" min="2" max="2"/>
-    <col width="16.52" customWidth="1" min="3" max="3"/>
+    <col width="20.06" customWidth="1" min="3" max="3"/>
     <col width="12.98" customWidth="1" min="4" max="4"/>
-    <col width="5.899999999999999" customWidth="1" min="5" max="5"/>
+    <col width="4.72" customWidth="1" min="5" max="5"/>
     <col width="11.8" customWidth="1" min="6" max="6"/>
     <col width="11.8" customWidth="1" min="7" max="7"/>
-    <col width="43.66" customWidth="1" min="8" max="8"/>
-    <col width="35.4" customWidth="1" min="9" max="9"/>
-    <col width="22.42" customWidth="1" min="10" max="10"/>
-    <col width="25.96" customWidth="1" min="11" max="11"/>
-    <col width="12.98" customWidth="1" min="12" max="12"/>
+    <col width="38.94" customWidth="1" min="8" max="8"/>
+    <col width="17.7" customWidth="1" min="9" max="9"/>
+    <col width="10.62" customWidth="1" min="10" max="10"/>
+    <col width="16.52" customWidth="1" min="11" max="11"/>
+    <col width="9.44" customWidth="1" min="12" max="12"/>
     <col width="7.08" customWidth="1" min="13" max="13"/>
     <col width="5.899999999999999" customWidth="1" min="14" max="14"/>
-    <col width="47.2" customWidth="1" min="15" max="15"/>
+    <col width="46.02" customWidth="1" min="15" max="15"/>
     <col width="35.4" customWidth="1" min="16" max="16"/>
     <col width="40.12" customWidth="1" min="17" max="17"/>
     <col width="80.23999999999999" customWidth="1" min="18" max="18"/>
@@ -550,67 +550,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ward</t>
+          <t>LASTNAME</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rward@lapro.tv</t>
+          <t>lucasain@mail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15042280136</t>
+          <t>08001234</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0207A</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>04/09/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/09/2020</t>
+          <t>02/01/2020</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0210207A24825215042280136Jamie Albert</t>
+          <t>everything seems to be going well</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pam Martin - Keller Williams  </t>
+          <t>Peluca Sistemas</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pam Martin, REALTOR</t>
+          <t>Luca Sain</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18025 Lake Iris Avenue</t>
+          <t>someStreet 123</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Baton Rouge</t>
+          <t>someCity</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>gg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>pammartin01@yahoo.com pammartin01@kw.com</t>
+          <t>facebook@facebook.com google@google.com</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>(251)269-8864 or (251)279-0716</t>
+          <t>(123)456-7890 or (098)765-4321</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
